--- a/metadata2.xlsx
+++ b/metadata2.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\2018\_CSP572_Practicum\EDSA UCA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_A3D07763C3574AFC12484854326256C938714756" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{53E7D1CE-3BD6-4861-9188-FDD4DD68BF91}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="194">
   <si>
     <t>variable.labels</t>
   </si>
@@ -602,21 +594,16 @@
   </si>
   <si>
     <t>SIn niños que no asisten; Con niños que no asisten</t>
-  </si>
-  <si>
-    <t>character</t>
-  </si>
-  <si>
-    <t>deficitary; not_deficitary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -628,7 +615,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -646,328 +633,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L80"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -999,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1009,8 +687,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="n">
+        <v>1.0</v>
       </c>
       <c r="E2" t="s">
         <v>155</v>
@@ -1024,8 +702,8 @@
       <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="I2" t="n">
+        <v>1.0</v>
       </c>
       <c r="J2" t="s">
         <v>155</v>
@@ -1033,12 +711,8 @@
       <c r="K2" t="s">
         <v>157</v>
       </c>
-      <c r="L2" t="b">
-        <f>+C2=H2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1048,8 +722,8 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="n">
+        <v>2.0</v>
       </c>
       <c r="E3" t="s">
         <v>156</v>
@@ -1063,8 +737,8 @@
       <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I3">
-        <v>2</v>
+      <c r="I3" t="n">
+        <v>2.0</v>
       </c>
       <c r="J3" t="s">
         <v>156</v>
@@ -1072,12 +746,8 @@
       <c r="K3" t="s">
         <v>86</v>
       </c>
-      <c r="L3" t="b">
-        <f t="shared" ref="L3:L66" si="0">+C3=H3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +757,8 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="D4" t="n">
+        <v>3.0</v>
       </c>
       <c r="E4" t="s">
         <v>156</v>
@@ -1102,8 +772,8 @@
       <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I4">
-        <v>3</v>
+      <c r="I4" t="n">
+        <v>3.0</v>
       </c>
       <c r="J4" t="s">
         <v>156</v>
@@ -1111,12 +781,8 @@
       <c r="K4" t="s">
         <v>86</v>
       </c>
-      <c r="L4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +792,8 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>4</v>
+      <c r="D5" t="n">
+        <v>4.0</v>
       </c>
       <c r="E5" t="s">
         <v>156</v>
@@ -1141,8 +807,8 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="I5">
-        <v>4</v>
+      <c r="I5" t="n">
+        <v>4.0</v>
       </c>
       <c r="J5" t="s">
         <v>156</v>
@@ -1150,12 +816,8 @@
       <c r="K5" t="s">
         <v>86</v>
       </c>
-      <c r="L5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +827,8 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>5</v>
+      <c r="D6" t="n">
+        <v>5.0</v>
       </c>
       <c r="E6" t="s">
         <v>156</v>
@@ -1180,8 +842,8 @@
       <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="I6">
-        <v>5</v>
+      <c r="I6" t="n">
+        <v>5.0</v>
       </c>
       <c r="J6" t="s">
         <v>156</v>
@@ -1189,12 +851,8 @@
       <c r="K6" t="s">
         <v>86</v>
       </c>
-      <c r="L6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1204,8 +862,8 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>6</v>
+      <c r="D7" t="n">
+        <v>6.0</v>
       </c>
       <c r="E7" t="s">
         <v>156</v>
@@ -1219,8 +877,8 @@
       <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7">
-        <v>6</v>
+      <c r="I7" t="n">
+        <v>6.0</v>
       </c>
       <c r="J7" t="s">
         <v>156</v>
@@ -1228,12 +886,8 @@
       <c r="K7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1243,8 +897,8 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
-        <v>7</v>
+      <c r="D8" t="n">
+        <v>7.0</v>
       </c>
       <c r="E8" t="s">
         <v>155</v>
@@ -1258,8 +912,8 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I8">
-        <v>7</v>
+      <c r="I8" t="n">
+        <v>7.0</v>
       </c>
       <c r="J8" t="s">
         <v>155</v>
@@ -1267,12 +921,8 @@
       <c r="K8" t="s">
         <v>158</v>
       </c>
-      <c r="L8" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1282,8 +932,8 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9">
-        <v>8</v>
+      <c r="D9" t="n">
+        <v>8.0</v>
       </c>
       <c r="E9" t="s">
         <v>155</v>
@@ -1297,8 +947,8 @@
       <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="I9">
-        <v>8</v>
+      <c r="I9" t="n">
+        <v>8.0</v>
       </c>
       <c r="J9" t="s">
         <v>155</v>
@@ -1306,12 +956,8 @@
       <c r="K9" t="s">
         <v>159</v>
       </c>
-      <c r="L9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1321,8 +967,8 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>9</v>
+      <c r="D10" t="n">
+        <v>9.0</v>
       </c>
       <c r="E10" t="s">
         <v>155</v>
@@ -1336,8 +982,8 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="I10">
-        <v>9</v>
+      <c r="I10" t="n">
+        <v>9.0</v>
       </c>
       <c r="J10" t="s">
         <v>155</v>
@@ -1345,12 +991,8 @@
       <c r="K10" t="s">
         <v>160</v>
       </c>
-      <c r="L10" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1360,8 +1002,8 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
-        <v>10</v>
+      <c r="D11" t="n">
+        <v>10.0</v>
       </c>
       <c r="E11" t="s">
         <v>155</v>
@@ -1375,8 +1017,8 @@
       <c r="H11" t="s">
         <v>14</v>
       </c>
-      <c r="I11">
-        <v>10</v>
+      <c r="I11" t="n">
+        <v>10.0</v>
       </c>
       <c r="J11" t="s">
         <v>155</v>
@@ -1384,12 +1026,8 @@
       <c r="K11" t="s">
         <v>161</v>
       </c>
-      <c r="L11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1399,8 +1037,8 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12">
-        <v>11</v>
+      <c r="D12" t="n">
+        <v>11.0</v>
       </c>
       <c r="E12" t="s">
         <v>156</v>
@@ -1414,8 +1052,8 @@
       <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="I12">
-        <v>11</v>
+      <c r="I12" t="n">
+        <v>11.0</v>
       </c>
       <c r="J12" t="s">
         <v>156</v>
@@ -1423,12 +1061,8 @@
       <c r="K12" t="s">
         <v>86</v>
       </c>
-      <c r="L12" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1438,8 +1072,8 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13">
-        <v>12</v>
+      <c r="D13" t="n">
+        <v>12.0</v>
       </c>
       <c r="E13" t="s">
         <v>156</v>
@@ -1453,8 +1087,8 @@
       <c r="H13" t="s">
         <v>16</v>
       </c>
-      <c r="I13">
-        <v>12</v>
+      <c r="I13" t="n">
+        <v>12.0</v>
       </c>
       <c r="J13" t="s">
         <v>156</v>
@@ -1462,12 +1096,8 @@
       <c r="K13" t="s">
         <v>86</v>
       </c>
-      <c r="L13" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1477,8 +1107,8 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14">
-        <v>13</v>
+      <c r="D14" t="n">
+        <v>13.0</v>
       </c>
       <c r="E14" t="s">
         <v>155</v>
@@ -1492,8 +1122,8 @@
       <c r="H14" t="s">
         <v>17</v>
       </c>
-      <c r="I14">
-        <v>13</v>
+      <c r="I14" t="n">
+        <v>13.0</v>
       </c>
       <c r="J14" t="s">
         <v>155</v>
@@ -1501,12 +1131,8 @@
       <c r="K14" t="s">
         <v>162</v>
       </c>
-      <c r="L14" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1516,8 +1142,8 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15">
-        <v>14</v>
+      <c r="D15" t="n">
+        <v>14.0</v>
       </c>
       <c r="E15" t="s">
         <v>155</v>
@@ -1531,8 +1157,8 @@
       <c r="H15" t="s">
         <v>18</v>
       </c>
-      <c r="I15">
-        <v>14</v>
+      <c r="I15" t="n">
+        <v>14.0</v>
       </c>
       <c r="J15" t="s">
         <v>155</v>
@@ -1540,12 +1166,8 @@
       <c r="K15" t="s">
         <v>163</v>
       </c>
-      <c r="L15" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1555,8 +1177,8 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16">
-        <v>15</v>
+      <c r="D16" t="n">
+        <v>15.0</v>
       </c>
       <c r="E16" t="s">
         <v>155</v>
@@ -1570,8 +1192,8 @@
       <c r="H16" t="s">
         <v>19</v>
       </c>
-      <c r="I16">
-        <v>15</v>
+      <c r="I16" t="n">
+        <v>15.0</v>
       </c>
       <c r="J16" t="s">
         <v>155</v>
@@ -1579,12 +1201,8 @@
       <c r="K16" t="s">
         <v>164</v>
       </c>
-      <c r="L16" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1594,8 +1212,8 @@
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17">
-        <v>16</v>
+      <c r="D17" t="n">
+        <v>16.0</v>
       </c>
       <c r="E17" t="s">
         <v>155</v>
@@ -1609,8 +1227,8 @@
       <c r="H17" t="s">
         <v>20</v>
       </c>
-      <c r="I17">
-        <v>16</v>
+      <c r="I17" t="n">
+        <v>16.0</v>
       </c>
       <c r="J17" t="s">
         <v>155</v>
@@ -1618,12 +1236,8 @@
       <c r="K17" t="s">
         <v>165</v>
       </c>
-      <c r="L17" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1633,8 +1247,8 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18">
-        <v>17</v>
+      <c r="D18" t="n">
+        <v>17.0</v>
       </c>
       <c r="E18" t="s">
         <v>155</v>
@@ -1648,8 +1262,8 @@
       <c r="H18" t="s">
         <v>21</v>
       </c>
-      <c r="I18">
-        <v>17</v>
+      <c r="I18" t="n">
+        <v>17.0</v>
       </c>
       <c r="J18" t="s">
         <v>155</v>
@@ -1657,12 +1271,8 @@
       <c r="K18" t="s">
         <v>166</v>
       </c>
-      <c r="L18" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1672,8 +1282,8 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19">
-        <v>18</v>
+      <c r="D19" t="n">
+        <v>18.0</v>
       </c>
       <c r="E19" t="s">
         <v>155</v>
@@ -1687,8 +1297,8 @@
       <c r="H19" t="s">
         <v>22</v>
       </c>
-      <c r="I19">
-        <v>18</v>
+      <c r="I19" t="n">
+        <v>18.0</v>
       </c>
       <c r="J19" t="s">
         <v>155</v>
@@ -1696,12 +1306,8 @@
       <c r="K19" t="s">
         <v>167</v>
       </c>
-      <c r="L19" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1711,8 +1317,8 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20">
-        <v>19</v>
+      <c r="D20" t="n">
+        <v>19.0</v>
       </c>
       <c r="E20" t="s">
         <v>155</v>
@@ -1726,8 +1332,8 @@
       <c r="H20" t="s">
         <v>23</v>
       </c>
-      <c r="I20">
-        <v>19</v>
+      <c r="I20" t="n">
+        <v>19.0</v>
       </c>
       <c r="J20" t="s">
         <v>155</v>
@@ -1735,12 +1341,8 @@
       <c r="K20" t="s">
         <v>168</v>
       </c>
-      <c r="L20" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1750,8 +1352,8 @@
       <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D21">
-        <v>20</v>
+      <c r="D21" t="n">
+        <v>20.0</v>
       </c>
       <c r="E21" t="s">
         <v>155</v>
@@ -1765,8 +1367,8 @@
       <c r="H21" t="s">
         <v>24</v>
       </c>
-      <c r="I21">
-        <v>20</v>
+      <c r="I21" t="n">
+        <v>20.0</v>
       </c>
       <c r="J21" t="s">
         <v>155</v>
@@ -1774,12 +1376,8 @@
       <c r="K21" t="s">
         <v>169</v>
       </c>
-      <c r="L21" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1789,8 +1387,8 @@
       <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="D22">
-        <v>21</v>
+      <c r="D22" t="n">
+        <v>21.0</v>
       </c>
       <c r="E22" t="s">
         <v>155</v>
@@ -1804,8 +1402,8 @@
       <c r="H22" t="s">
         <v>25</v>
       </c>
-      <c r="I22">
-        <v>21</v>
+      <c r="I22" t="n">
+        <v>21.0</v>
       </c>
       <c r="J22" t="s">
         <v>155</v>
@@ -1813,12 +1411,8 @@
       <c r="K22" t="s">
         <v>170</v>
       </c>
-      <c r="L22" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1828,8 +1422,8 @@
       <c r="C23" t="s">
         <v>26</v>
       </c>
-      <c r="D23">
-        <v>22</v>
+      <c r="D23" t="n">
+        <v>22.0</v>
       </c>
       <c r="E23" t="s">
         <v>155</v>
@@ -1843,8 +1437,8 @@
       <c r="H23" t="s">
         <v>26</v>
       </c>
-      <c r="I23">
-        <v>22</v>
+      <c r="I23" t="n">
+        <v>22.0</v>
       </c>
       <c r="J23" t="s">
         <v>155</v>
@@ -1852,12 +1446,8 @@
       <c r="K23" t="s">
         <v>171</v>
       </c>
-      <c r="L23" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1867,8 +1457,8 @@
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D24">
-        <v>23</v>
+      <c r="D24" t="n">
+        <v>23.0</v>
       </c>
       <c r="E24" t="s">
         <v>155</v>
@@ -1882,8 +1472,8 @@
       <c r="H24" t="s">
         <v>27</v>
       </c>
-      <c r="I24">
-        <v>23</v>
+      <c r="I24" t="n">
+        <v>23.0</v>
       </c>
       <c r="J24" t="s">
         <v>155</v>
@@ -1891,12 +1481,8 @@
       <c r="K24" t="s">
         <v>172</v>
       </c>
-      <c r="L24" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1906,8 +1492,8 @@
       <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D25">
-        <v>24</v>
+      <c r="D25" t="n">
+        <v>24.0</v>
       </c>
       <c r="E25" t="s">
         <v>155</v>
@@ -1921,8 +1507,8 @@
       <c r="H25" t="s">
         <v>28</v>
       </c>
-      <c r="I25">
-        <v>24</v>
+      <c r="I25" t="n">
+        <v>24.0</v>
       </c>
       <c r="J25" t="s">
         <v>155</v>
@@ -1930,12 +1516,8 @@
       <c r="K25" t="s">
         <v>173</v>
       </c>
-      <c r="L25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1945,8 +1527,8 @@
       <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="D26">
-        <v>25</v>
+      <c r="D26" t="n">
+        <v>25.0</v>
       </c>
       <c r="E26" t="s">
         <v>155</v>
@@ -1960,21 +1542,17 @@
       <c r="H26" t="s">
         <v>29</v>
       </c>
-      <c r="I26">
-        <v>25</v>
+      <c r="I26" t="n">
+        <v>25.0</v>
       </c>
       <c r="J26" t="s">
         <v>155</v>
       </c>
       <c r="K26" t="s">
-        <v>195</v>
-      </c>
-      <c r="L26" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1984,8 +1562,8 @@
       <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="D27">
-        <v>26</v>
+      <c r="D27" t="n">
+        <v>26.0</v>
       </c>
       <c r="E27" t="s">
         <v>155</v>
@@ -1999,21 +1577,17 @@
       <c r="H27" t="s">
         <v>30</v>
       </c>
-      <c r="I27">
-        <v>26</v>
+      <c r="I27" t="n">
+        <v>26.0</v>
       </c>
       <c r="J27" t="s">
         <v>155</v>
       </c>
       <c r="K27" t="s">
-        <v>195</v>
-      </c>
-      <c r="L27" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2023,8 +1597,8 @@
       <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="D28">
-        <v>27</v>
+      <c r="D28" t="n">
+        <v>27.0</v>
       </c>
       <c r="E28" t="s">
         <v>155</v>
@@ -2038,21 +1612,17 @@
       <c r="H28" t="s">
         <v>31</v>
       </c>
-      <c r="I28">
-        <v>27</v>
+      <c r="I28" t="n">
+        <v>27.0</v>
       </c>
       <c r="J28" t="s">
         <v>155</v>
       </c>
       <c r="K28" t="s">
-        <v>195</v>
-      </c>
-      <c r="L28" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2062,8 +1632,8 @@
       <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="D29">
-        <v>28</v>
+      <c r="D29" t="n">
+        <v>28.0</v>
       </c>
       <c r="E29" t="s">
         <v>156</v>
@@ -2077,21 +1647,17 @@
       <c r="H29" t="s">
         <v>32</v>
       </c>
-      <c r="I29">
-        <v>28</v>
+      <c r="I29" t="n">
+        <v>28.0</v>
       </c>
       <c r="J29" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="K29" t="s">
-        <v>195</v>
-      </c>
-      <c r="L29" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2101,8 +1667,8 @@
       <c r="C30" t="s">
         <v>33</v>
       </c>
-      <c r="D30">
-        <v>29</v>
+      <c r="D30" t="n">
+        <v>29.0</v>
       </c>
       <c r="E30" t="s">
         <v>155</v>
@@ -2116,21 +1682,17 @@
       <c r="H30" t="s">
         <v>33</v>
       </c>
-      <c r="I30">
-        <v>29</v>
+      <c r="I30" t="n">
+        <v>29.0</v>
       </c>
       <c r="J30" t="s">
         <v>155</v>
       </c>
       <c r="K30" t="s">
-        <v>195</v>
-      </c>
-      <c r="L30" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2140,8 +1702,8 @@
       <c r="C31" t="s">
         <v>34</v>
       </c>
-      <c r="D31">
-        <v>30</v>
+      <c r="D31" t="n">
+        <v>30.0</v>
       </c>
       <c r="E31" t="s">
         <v>155</v>
@@ -2155,21 +1717,17 @@
       <c r="H31" t="s">
         <v>34</v>
       </c>
-      <c r="I31">
-        <v>30</v>
+      <c r="I31" t="n">
+        <v>30.0</v>
       </c>
       <c r="J31" t="s">
         <v>155</v>
       </c>
       <c r="K31" t="s">
-        <v>195</v>
-      </c>
-      <c r="L31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2179,8 +1737,8 @@
       <c r="C32" t="s">
         <v>35</v>
       </c>
-      <c r="D32">
-        <v>31</v>
+      <c r="D32" t="n">
+        <v>31.0</v>
       </c>
       <c r="E32" t="s">
         <v>155</v>
@@ -2194,21 +1752,17 @@
       <c r="H32" t="s">
         <v>35</v>
       </c>
-      <c r="I32">
-        <v>31</v>
+      <c r="I32" t="n">
+        <v>31.0</v>
       </c>
       <c r="J32" t="s">
         <v>155</v>
       </c>
       <c r="K32" t="s">
-        <v>195</v>
-      </c>
-      <c r="L32" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2218,8 +1772,8 @@
       <c r="C33" t="s">
         <v>36</v>
       </c>
-      <c r="D33">
-        <v>32</v>
+      <c r="D33" t="n">
+        <v>32.0</v>
       </c>
       <c r="E33" t="s">
         <v>155</v>
@@ -2233,21 +1787,17 @@
       <c r="H33" t="s">
         <v>36</v>
       </c>
-      <c r="I33">
-        <v>32</v>
+      <c r="I33" t="n">
+        <v>32.0</v>
       </c>
       <c r="J33" t="s">
         <v>155</v>
       </c>
       <c r="K33" t="s">
-        <v>195</v>
-      </c>
-      <c r="L33" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2257,8 +1807,8 @@
       <c r="C34" t="s">
         <v>37</v>
       </c>
-      <c r="D34">
-        <v>33</v>
+      <c r="D34" t="n">
+        <v>33.0</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -2272,21 +1822,17 @@
       <c r="H34" t="s">
         <v>37</v>
       </c>
-      <c r="I34">
-        <v>33</v>
+      <c r="I34" t="n">
+        <v>33.0</v>
       </c>
       <c r="J34" t="s">
         <v>155</v>
       </c>
       <c r="K34" t="s">
-        <v>195</v>
-      </c>
-      <c r="L34" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2296,8 +1842,8 @@
       <c r="C35" t="s">
         <v>38</v>
       </c>
-      <c r="D35">
-        <v>34</v>
+      <c r="D35" t="n">
+        <v>34.0</v>
       </c>
       <c r="E35" t="s">
         <v>155</v>
@@ -2311,21 +1857,17 @@
       <c r="H35" t="s">
         <v>38</v>
       </c>
-      <c r="I35">
-        <v>34</v>
+      <c r="I35" t="n">
+        <v>34.0</v>
       </c>
       <c r="J35" t="s">
         <v>155</v>
       </c>
       <c r="K35" t="s">
-        <v>195</v>
-      </c>
-      <c r="L35" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2335,8 +1877,8 @@
       <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="D36">
-        <v>35</v>
+      <c r="D36" t="n">
+        <v>35.0</v>
       </c>
       <c r="E36" t="s">
         <v>155</v>
@@ -2350,21 +1892,17 @@
       <c r="H36" t="s">
         <v>39</v>
       </c>
-      <c r="I36">
-        <v>35</v>
+      <c r="I36" t="n">
+        <v>35.0</v>
       </c>
       <c r="J36" t="s">
         <v>155</v>
       </c>
       <c r="K36" t="s">
-        <v>195</v>
-      </c>
-      <c r="L36" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2374,8 +1912,8 @@
       <c r="C37" t="s">
         <v>40</v>
       </c>
-      <c r="D37">
-        <v>36</v>
+      <c r="D37" t="n">
+        <v>36.0</v>
       </c>
       <c r="E37" t="s">
         <v>155</v>
@@ -2389,21 +1927,17 @@
       <c r="H37" t="s">
         <v>40</v>
       </c>
-      <c r="I37">
-        <v>36</v>
+      <c r="I37" t="n">
+        <v>36.0</v>
       </c>
       <c r="J37" t="s">
         <v>155</v>
       </c>
       <c r="K37" t="s">
-        <v>195</v>
-      </c>
-      <c r="L37" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2413,8 +1947,8 @@
       <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="D38">
-        <v>37</v>
+      <c r="D38" t="n">
+        <v>37.0</v>
       </c>
       <c r="E38" t="s">
         <v>155</v>
@@ -2428,21 +1962,17 @@
       <c r="H38" t="s">
         <v>41</v>
       </c>
-      <c r="I38">
-        <v>37</v>
+      <c r="I38" t="n">
+        <v>37.0</v>
       </c>
       <c r="J38" t="s">
         <v>155</v>
       </c>
       <c r="K38" t="s">
-        <v>195</v>
-      </c>
-      <c r="L38" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2452,8 +1982,8 @@
       <c r="C39" t="s">
         <v>42</v>
       </c>
-      <c r="D39">
-        <v>38</v>
+      <c r="D39" t="n">
+        <v>38.0</v>
       </c>
       <c r="E39" t="s">
         <v>155</v>
@@ -2467,21 +1997,17 @@
       <c r="H39" t="s">
         <v>42</v>
       </c>
-      <c r="I39">
-        <v>38</v>
+      <c r="I39" t="n">
+        <v>38.0</v>
       </c>
       <c r="J39" t="s">
         <v>155</v>
       </c>
       <c r="K39" t="s">
-        <v>195</v>
-      </c>
-      <c r="L39" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2491,8 +2017,8 @@
       <c r="C40" t="s">
         <v>43</v>
       </c>
-      <c r="D40">
-        <v>39</v>
+      <c r="D40" t="n">
+        <v>39.0</v>
       </c>
       <c r="E40" t="s">
         <v>155</v>
@@ -2506,21 +2032,17 @@
       <c r="H40" t="s">
         <v>43</v>
       </c>
-      <c r="I40">
-        <v>39</v>
+      <c r="I40" t="n">
+        <v>39.0</v>
       </c>
       <c r="J40" t="s">
         <v>155</v>
       </c>
       <c r="K40" t="s">
-        <v>195</v>
-      </c>
-      <c r="L40" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2530,8 +2052,8 @@
       <c r="C41" t="s">
         <v>44</v>
       </c>
-      <c r="D41">
-        <v>40</v>
+      <c r="D41" t="n">
+        <v>40.0</v>
       </c>
       <c r="E41" t="s">
         <v>155</v>
@@ -2545,21 +2067,17 @@
       <c r="H41" t="s">
         <v>44</v>
       </c>
-      <c r="I41">
-        <v>40</v>
+      <c r="I41" t="n">
+        <v>40.0</v>
       </c>
       <c r="J41" t="s">
         <v>155</v>
       </c>
       <c r="K41" t="s">
-        <v>195</v>
-      </c>
-      <c r="L41" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2569,8 +2087,8 @@
       <c r="C42" t="s">
         <v>45</v>
       </c>
-      <c r="D42">
-        <v>41</v>
+      <c r="D42" t="n">
+        <v>41.0</v>
       </c>
       <c r="E42" t="s">
         <v>155</v>
@@ -2584,21 +2102,17 @@
       <c r="H42" t="s">
         <v>45</v>
       </c>
-      <c r="I42">
-        <v>41</v>
+      <c r="I42" t="n">
+        <v>41.0</v>
       </c>
       <c r="J42" t="s">
         <v>155</v>
       </c>
       <c r="K42" t="s">
-        <v>195</v>
-      </c>
-      <c r="L42" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2608,8 +2122,8 @@
       <c r="C43" t="s">
         <v>46</v>
       </c>
-      <c r="D43">
-        <v>42</v>
+      <c r="D43" t="n">
+        <v>42.0</v>
       </c>
       <c r="E43" t="s">
         <v>155</v>
@@ -2623,21 +2137,17 @@
       <c r="H43" t="s">
         <v>46</v>
       </c>
-      <c r="I43">
-        <v>42</v>
+      <c r="I43" t="n">
+        <v>42.0</v>
       </c>
       <c r="J43" t="s">
         <v>155</v>
       </c>
       <c r="K43" t="s">
-        <v>195</v>
-      </c>
-      <c r="L43" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2647,8 +2157,8 @@
       <c r="C44" t="s">
         <v>47</v>
       </c>
-      <c r="D44">
-        <v>43</v>
+      <c r="D44" t="n">
+        <v>43.0</v>
       </c>
       <c r="E44" t="s">
         <v>155</v>
@@ -2662,21 +2172,17 @@
       <c r="H44" t="s">
         <v>47</v>
       </c>
-      <c r="I44">
-        <v>43</v>
+      <c r="I44" t="n">
+        <v>43.0</v>
       </c>
       <c r="J44" t="s">
         <v>155</v>
       </c>
       <c r="K44" t="s">
-        <v>195</v>
-      </c>
-      <c r="L44" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2686,8 +2192,8 @@
       <c r="C45" t="s">
         <v>48</v>
       </c>
-      <c r="D45">
-        <v>44</v>
+      <c r="D45" t="n">
+        <v>44.0</v>
       </c>
       <c r="E45" t="s">
         <v>156</v>
@@ -2701,21 +2207,17 @@
       <c r="H45" t="s">
         <v>48</v>
       </c>
-      <c r="I45">
-        <v>44</v>
+      <c r="I45" t="n">
+        <v>44.0</v>
       </c>
       <c r="J45" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="K45" t="s">
-        <v>195</v>
-      </c>
-      <c r="L45" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2725,8 +2227,8 @@
       <c r="C46" t="s">
         <v>49</v>
       </c>
-      <c r="D46">
-        <v>45</v>
+      <c r="D46" t="n">
+        <v>45.0</v>
       </c>
       <c r="E46" t="s">
         <v>155</v>
@@ -2740,21 +2242,17 @@
       <c r="H46" t="s">
         <v>49</v>
       </c>
-      <c r="I46">
-        <v>45</v>
+      <c r="I46" t="n">
+        <v>45.0</v>
       </c>
       <c r="J46" t="s">
         <v>155</v>
       </c>
       <c r="K46" t="s">
-        <v>195</v>
-      </c>
-      <c r="L46" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2764,8 +2262,8 @@
       <c r="C47" t="s">
         <v>50</v>
       </c>
-      <c r="D47">
-        <v>46</v>
+      <c r="D47" t="n">
+        <v>46.0</v>
       </c>
       <c r="E47" t="s">
         <v>156</v>
@@ -2779,21 +2277,17 @@
       <c r="H47" t="s">
         <v>50</v>
       </c>
-      <c r="I47">
-        <v>46</v>
+      <c r="I47" t="n">
+        <v>46.0</v>
       </c>
       <c r="J47" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="K47" t="s">
-        <v>195</v>
-      </c>
-      <c r="L47" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2803,8 +2297,8 @@
       <c r="C48" t="s">
         <v>51</v>
       </c>
-      <c r="D48">
-        <v>47</v>
+      <c r="D48" t="n">
+        <v>47.0</v>
       </c>
       <c r="E48" t="s">
         <v>155</v>
@@ -2818,21 +2312,17 @@
       <c r="H48" t="s">
         <v>51</v>
       </c>
-      <c r="I48">
-        <v>47</v>
+      <c r="I48" t="n">
+        <v>47.0</v>
       </c>
       <c r="J48" t="s">
         <v>155</v>
       </c>
       <c r="K48" t="s">
-        <v>195</v>
-      </c>
-      <c r="L48" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2842,8 +2332,8 @@
       <c r="C49" t="s">
         <v>52</v>
       </c>
-      <c r="D49">
-        <v>48</v>
+      <c r="D49" t="n">
+        <v>48.0</v>
       </c>
       <c r="E49" t="s">
         <v>155</v>
@@ -2857,21 +2347,17 @@
       <c r="H49" t="s">
         <v>52</v>
       </c>
-      <c r="I49">
-        <v>48</v>
+      <c r="I49" t="n">
+        <v>48.0</v>
       </c>
       <c r="J49" t="s">
         <v>155</v>
       </c>
       <c r="K49" t="s">
-        <v>195</v>
-      </c>
-      <c r="L49" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2881,8 +2367,8 @@
       <c r="C50" t="s">
         <v>53</v>
       </c>
-      <c r="D50">
-        <v>49</v>
+      <c r="D50" t="n">
+        <v>49.0</v>
       </c>
       <c r="E50" t="s">
         <v>156</v>
@@ -2896,8 +2382,8 @@
       <c r="H50" t="s">
         <v>53</v>
       </c>
-      <c r="I50">
-        <v>49</v>
+      <c r="I50" t="n">
+        <v>49.0</v>
       </c>
       <c r="J50" t="s">
         <v>156</v>
@@ -2905,12 +2391,8 @@
       <c r="K50" t="s">
         <v>86</v>
       </c>
-      <c r="L50" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2920,8 +2402,8 @@
       <c r="C51" t="s">
         <v>54</v>
       </c>
-      <c r="D51">
-        <v>50</v>
+      <c r="D51" t="n">
+        <v>50.0</v>
       </c>
       <c r="E51" t="s">
         <v>156</v>
@@ -2935,8 +2417,8 @@
       <c r="H51" t="s">
         <v>54</v>
       </c>
-      <c r="I51">
-        <v>50</v>
+      <c r="I51" t="n">
+        <v>50.0</v>
       </c>
       <c r="J51" t="s">
         <v>156</v>
@@ -2944,12 +2426,8 @@
       <c r="K51" t="s">
         <v>86</v>
       </c>
-      <c r="L51" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2959,8 +2437,8 @@
       <c r="C52" t="s">
         <v>55</v>
       </c>
-      <c r="D52">
-        <v>51</v>
+      <c r="D52" t="n">
+        <v>51.0</v>
       </c>
       <c r="E52" t="s">
         <v>156</v>
@@ -2974,8 +2452,8 @@
       <c r="H52" t="s">
         <v>55</v>
       </c>
-      <c r="I52">
-        <v>51</v>
+      <c r="I52" t="n">
+        <v>51.0</v>
       </c>
       <c r="J52" t="s">
         <v>156</v>
@@ -2983,12 +2461,8 @@
       <c r="K52" t="s">
         <v>86</v>
       </c>
-      <c r="L52" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2998,8 +2472,8 @@
       <c r="C53" t="s">
         <v>56</v>
       </c>
-      <c r="D53">
-        <v>52</v>
+      <c r="D53" t="n">
+        <v>52.0</v>
       </c>
       <c r="E53" t="s">
         <v>155</v>
@@ -3013,8 +2487,8 @@
       <c r="H53" t="s">
         <v>56</v>
       </c>
-      <c r="I53">
-        <v>52</v>
+      <c r="I53" t="n">
+        <v>52.0</v>
       </c>
       <c r="J53" t="s">
         <v>155</v>
@@ -3022,12 +2496,8 @@
       <c r="K53" t="s">
         <v>176</v>
       </c>
-      <c r="L53" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -3037,8 +2507,8 @@
       <c r="C54" t="s">
         <v>57</v>
       </c>
-      <c r="D54">
-        <v>53</v>
+      <c r="D54" t="n">
+        <v>53.0</v>
       </c>
       <c r="E54" t="s">
         <v>156</v>
@@ -3052,8 +2522,8 @@
       <c r="H54" t="s">
         <v>57</v>
       </c>
-      <c r="I54">
-        <v>53</v>
+      <c r="I54" t="n">
+        <v>53.0</v>
       </c>
       <c r="J54" t="s">
         <v>156</v>
@@ -3061,12 +2531,8 @@
       <c r="K54" t="s">
         <v>86</v>
       </c>
-      <c r="L54" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -3076,8 +2542,8 @@
       <c r="C55" t="s">
         <v>58</v>
       </c>
-      <c r="D55">
-        <v>54</v>
+      <c r="D55" t="n">
+        <v>54.0</v>
       </c>
       <c r="E55" t="s">
         <v>156</v>
@@ -3091,8 +2557,8 @@
       <c r="H55" t="s">
         <v>58</v>
       </c>
-      <c r="I55">
-        <v>54</v>
+      <c r="I55" t="n">
+        <v>54.0</v>
       </c>
       <c r="J55" t="s">
         <v>156</v>
@@ -3100,12 +2566,8 @@
       <c r="K55" t="s">
         <v>86</v>
       </c>
-      <c r="L55" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -3115,8 +2577,8 @@
       <c r="C56" t="s">
         <v>59</v>
       </c>
-      <c r="D56">
-        <v>55</v>
+      <c r="D56" t="n">
+        <v>55.0</v>
       </c>
       <c r="E56" t="s">
         <v>156</v>
@@ -3130,8 +2592,8 @@
       <c r="H56" t="s">
         <v>59</v>
       </c>
-      <c r="I56">
-        <v>55</v>
+      <c r="I56" t="n">
+        <v>55.0</v>
       </c>
       <c r="J56" t="s">
         <v>156</v>
@@ -3139,12 +2601,8 @@
       <c r="K56" t="s">
         <v>86</v>
       </c>
-      <c r="L56" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -3154,8 +2612,8 @@
       <c r="C57" t="s">
         <v>60</v>
       </c>
-      <c r="D57">
-        <v>56</v>
+      <c r="D57" t="n">
+        <v>56.0</v>
       </c>
       <c r="E57" t="s">
         <v>156</v>
@@ -3169,8 +2627,8 @@
       <c r="H57" t="s">
         <v>60</v>
       </c>
-      <c r="I57">
-        <v>56</v>
+      <c r="I57" t="n">
+        <v>56.0</v>
       </c>
       <c r="J57" t="s">
         <v>156</v>
@@ -3178,12 +2636,8 @@
       <c r="K57" t="s">
         <v>86</v>
       </c>
-      <c r="L57" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -3193,8 +2647,8 @@
       <c r="C58" t="s">
         <v>61</v>
       </c>
-      <c r="D58">
-        <v>57</v>
+      <c r="D58" t="n">
+        <v>57.0</v>
       </c>
       <c r="E58" t="s">
         <v>156</v>
@@ -3208,8 +2662,8 @@
       <c r="H58" t="s">
         <v>61</v>
       </c>
-      <c r="I58">
-        <v>57</v>
+      <c r="I58" t="n">
+        <v>57.0</v>
       </c>
       <c r="J58" t="s">
         <v>156</v>
@@ -3217,12 +2671,8 @@
       <c r="K58" t="s">
         <v>86</v>
       </c>
-      <c r="L58" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -3232,8 +2682,8 @@
       <c r="C59" t="s">
         <v>62</v>
       </c>
-      <c r="D59">
-        <v>58</v>
+      <c r="D59" t="n">
+        <v>58.0</v>
       </c>
       <c r="E59" t="s">
         <v>155</v>
@@ -3247,21 +2697,17 @@
       <c r="H59" t="s">
         <v>62</v>
       </c>
-      <c r="I59">
-        <v>58</v>
+      <c r="I59" t="n">
+        <v>58.0</v>
       </c>
       <c r="J59" t="s">
         <v>155</v>
       </c>
       <c r="K59" t="s">
-        <v>195</v>
-      </c>
-      <c r="L59" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -3271,8 +2717,8 @@
       <c r="C60" t="s">
         <v>63</v>
       </c>
-      <c r="D60">
-        <v>59</v>
+      <c r="D60" t="n">
+        <v>59.0</v>
       </c>
       <c r="E60" t="s">
         <v>155</v>
@@ -3286,21 +2732,17 @@
       <c r="H60" t="s">
         <v>63</v>
       </c>
-      <c r="I60">
-        <v>59</v>
+      <c r="I60" t="n">
+        <v>59.0</v>
       </c>
       <c r="J60" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="K60" t="s">
-        <v>195</v>
-      </c>
-      <c r="L60" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -3310,8 +2752,8 @@
       <c r="C61" t="s">
         <v>64</v>
       </c>
-      <c r="D61">
-        <v>60</v>
+      <c r="D61" t="n">
+        <v>60.0</v>
       </c>
       <c r="E61" t="s">
         <v>155</v>
@@ -3325,21 +2767,17 @@
       <c r="H61" t="s">
         <v>64</v>
       </c>
-      <c r="I61">
-        <v>60</v>
+      <c r="I61" t="n">
+        <v>60.0</v>
       </c>
       <c r="J61" t="s">
         <v>155</v>
       </c>
       <c r="K61" t="s">
-        <v>195</v>
-      </c>
-      <c r="L61" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -3349,8 +2787,8 @@
       <c r="C62" t="s">
         <v>65</v>
       </c>
-      <c r="D62">
-        <v>61</v>
+      <c r="D62" t="n">
+        <v>61.0</v>
       </c>
       <c r="E62" t="s">
         <v>155</v>
@@ -3364,21 +2802,17 @@
       <c r="H62" t="s">
         <v>65</v>
       </c>
-      <c r="I62">
-        <v>61</v>
+      <c r="I62" t="n">
+        <v>61.0</v>
       </c>
       <c r="J62" t="s">
         <v>155</v>
       </c>
       <c r="K62" t="s">
-        <v>195</v>
-      </c>
-      <c r="L62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +2822,8 @@
       <c r="C63" t="s">
         <v>66</v>
       </c>
-      <c r="D63">
-        <v>62</v>
+      <c r="D63" t="n">
+        <v>62.0</v>
       </c>
       <c r="E63" t="s">
         <v>155</v>
@@ -3403,8 +2837,8 @@
       <c r="H63" t="s">
         <v>66</v>
       </c>
-      <c r="I63">
-        <v>62</v>
+      <c r="I63" t="n">
+        <v>62.0</v>
       </c>
       <c r="J63" t="s">
         <v>155</v>
@@ -3412,12 +2846,8 @@
       <c r="K63" t="s">
         <v>181</v>
       </c>
-      <c r="L63" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -3427,8 +2857,8 @@
       <c r="C64" t="s">
         <v>67</v>
       </c>
-      <c r="D64">
-        <v>63</v>
+      <c r="D64" t="n">
+        <v>63.0</v>
       </c>
       <c r="E64" t="s">
         <v>155</v>
@@ -3442,21 +2872,17 @@
       <c r="H64" t="s">
         <v>67</v>
       </c>
-      <c r="I64">
-        <v>63</v>
+      <c r="I64" t="n">
+        <v>63.0</v>
       </c>
       <c r="J64" t="s">
         <v>155</v>
       </c>
       <c r="K64" t="s">
-        <v>195</v>
-      </c>
-      <c r="L64" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -3466,8 +2892,8 @@
       <c r="C65" t="s">
         <v>68</v>
       </c>
-      <c r="D65">
-        <v>64</v>
+      <c r="D65" t="n">
+        <v>64.0</v>
       </c>
       <c r="E65" t="s">
         <v>155</v>
@@ -3481,21 +2907,17 @@
       <c r="H65" t="s">
         <v>68</v>
       </c>
-      <c r="I65">
-        <v>64</v>
+      <c r="I65" t="n">
+        <v>64.0</v>
       </c>
       <c r="J65" t="s">
         <v>155</v>
       </c>
       <c r="K65" t="s">
-        <v>195</v>
-      </c>
-      <c r="L65" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -3505,8 +2927,8 @@
       <c r="C66" t="s">
         <v>69</v>
       </c>
-      <c r="D66">
-        <v>65</v>
+      <c r="D66" t="n">
+        <v>65.0</v>
       </c>
       <c r="E66" t="s">
         <v>155</v>
@@ -3520,21 +2942,17 @@
       <c r="H66" t="s">
         <v>69</v>
       </c>
-      <c r="I66">
-        <v>65</v>
+      <c r="I66" t="n">
+        <v>65.0</v>
       </c>
       <c r="J66" t="s">
         <v>155</v>
       </c>
       <c r="K66" t="s">
-        <v>195</v>
-      </c>
-      <c r="L66" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -3544,8 +2962,8 @@
       <c r="C67" t="s">
         <v>70</v>
       </c>
-      <c r="D67">
-        <v>66</v>
+      <c r="D67" t="n">
+        <v>66.0</v>
       </c>
       <c r="E67" t="s">
         <v>155</v>
@@ -3559,21 +2977,17 @@
       <c r="H67" t="s">
         <v>70</v>
       </c>
-      <c r="I67">
-        <v>66</v>
+      <c r="I67" t="n">
+        <v>66.0</v>
       </c>
       <c r="J67" t="s">
         <v>155</v>
       </c>
       <c r="K67" t="s">
-        <v>195</v>
-      </c>
-      <c r="L67" t="b">
-        <f t="shared" ref="L67:L80" si="1">+C67=H67</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -3583,8 +2997,8 @@
       <c r="C68" t="s">
         <v>71</v>
       </c>
-      <c r="D68">
-        <v>67</v>
+      <c r="D68" t="n">
+        <v>67.0</v>
       </c>
       <c r="E68" t="s">
         <v>155</v>
@@ -3598,21 +3012,17 @@
       <c r="H68" t="s">
         <v>71</v>
       </c>
-      <c r="I68">
-        <v>67</v>
+      <c r="I68" t="n">
+        <v>67.0</v>
       </c>
       <c r="J68" t="s">
         <v>155</v>
       </c>
       <c r="K68" t="s">
-        <v>195</v>
-      </c>
-      <c r="L68" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -3622,8 +3032,8 @@
       <c r="C69" t="s">
         <v>72</v>
       </c>
-      <c r="D69">
-        <v>68</v>
+      <c r="D69" t="n">
+        <v>68.0</v>
       </c>
       <c r="E69" t="s">
         <v>155</v>
@@ -3637,21 +3047,17 @@
       <c r="H69" t="s">
         <v>72</v>
       </c>
-      <c r="I69">
-        <v>68</v>
+      <c r="I69" t="n">
+        <v>68.0</v>
       </c>
       <c r="J69" t="s">
         <v>155</v>
       </c>
       <c r="K69" t="s">
-        <v>195</v>
-      </c>
-      <c r="L69" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -3661,8 +3067,8 @@
       <c r="C70" t="s">
         <v>73</v>
       </c>
-      <c r="D70">
-        <v>69</v>
+      <c r="D70" t="n">
+        <v>69.0</v>
       </c>
       <c r="E70" t="s">
         <v>155</v>
@@ -3676,21 +3082,17 @@
       <c r="H70" t="s">
         <v>73</v>
       </c>
-      <c r="I70">
-        <v>69</v>
+      <c r="I70" t="n">
+        <v>69.0</v>
       </c>
       <c r="J70" t="s">
         <v>155</v>
       </c>
       <c r="K70" t="s">
-        <v>195</v>
-      </c>
-      <c r="L70" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -3700,8 +3102,8 @@
       <c r="C71" t="s">
         <v>74</v>
       </c>
-      <c r="D71">
-        <v>70</v>
+      <c r="D71" t="n">
+        <v>70.0</v>
       </c>
       <c r="E71" t="s">
         <v>155</v>
@@ -3715,21 +3117,17 @@
       <c r="H71" t="s">
         <v>74</v>
       </c>
-      <c r="I71">
-        <v>70</v>
+      <c r="I71" t="n">
+        <v>70.0</v>
       </c>
       <c r="J71" t="s">
         <v>155</v>
       </c>
       <c r="K71" t="s">
-        <v>195</v>
-      </c>
-      <c r="L71" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -3739,8 +3137,8 @@
       <c r="C72" t="s">
         <v>75</v>
       </c>
-      <c r="D72">
-        <v>71</v>
+      <c r="D72" t="n">
+        <v>71.0</v>
       </c>
       <c r="E72" t="s">
         <v>155</v>
@@ -3754,21 +3152,17 @@
       <c r="H72" t="s">
         <v>75</v>
       </c>
-      <c r="I72">
-        <v>71</v>
+      <c r="I72" t="n">
+        <v>71.0</v>
       </c>
       <c r="J72" t="s">
         <v>155</v>
       </c>
       <c r="K72" t="s">
-        <v>195</v>
-      </c>
-      <c r="L72" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -3778,8 +3172,8 @@
       <c r="C73" t="s">
         <v>76</v>
       </c>
-      <c r="D73">
-        <v>72</v>
+      <c r="D73" t="n">
+        <v>72.0</v>
       </c>
       <c r="E73" t="s">
         <v>155</v>
@@ -3793,21 +3187,17 @@
       <c r="H73" t="s">
         <v>76</v>
       </c>
-      <c r="I73">
-        <v>72</v>
+      <c r="I73" t="n">
+        <v>72.0</v>
       </c>
       <c r="J73" t="s">
         <v>155</v>
       </c>
       <c r="K73" t="s">
-        <v>195</v>
-      </c>
-      <c r="L73" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -3817,8 +3207,8 @@
       <c r="C74" t="s">
         <v>77</v>
       </c>
-      <c r="D74">
-        <v>73</v>
+      <c r="D74" t="n">
+        <v>73.0</v>
       </c>
       <c r="E74" t="s">
         <v>155</v>
@@ -3832,21 +3222,17 @@
       <c r="H74" t="s">
         <v>77</v>
       </c>
-      <c r="I74">
-        <v>73</v>
+      <c r="I74" t="n">
+        <v>73.0</v>
       </c>
       <c r="J74" t="s">
         <v>155</v>
       </c>
       <c r="K74" t="s">
-        <v>195</v>
-      </c>
-      <c r="L74" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -3856,8 +3242,8 @@
       <c r="C75" t="s">
         <v>78</v>
       </c>
-      <c r="D75">
-        <v>74</v>
+      <c r="D75" t="n">
+        <v>74.0</v>
       </c>
       <c r="E75" t="s">
         <v>155</v>
@@ -3871,21 +3257,17 @@
       <c r="H75" t="s">
         <v>78</v>
       </c>
-      <c r="I75">
-        <v>74</v>
+      <c r="I75" t="n">
+        <v>74.0</v>
       </c>
       <c r="J75" t="s">
         <v>155</v>
       </c>
       <c r="K75" t="s">
-        <v>195</v>
-      </c>
-      <c r="L75" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -3895,8 +3277,8 @@
       <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="D76">
-        <v>75</v>
+      <c r="D76" t="n">
+        <v>75.0</v>
       </c>
       <c r="E76" t="s">
         <v>155</v>
@@ -3910,21 +3292,17 @@
       <c r="H76" t="s">
         <v>79</v>
       </c>
-      <c r="I76">
-        <v>75</v>
+      <c r="I76" t="n">
+        <v>75.0</v>
       </c>
       <c r="J76" t="s">
         <v>155</v>
       </c>
       <c r="K76" t="s">
-        <v>195</v>
-      </c>
-      <c r="L76" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -3934,8 +3312,8 @@
       <c r="C77" t="s">
         <v>80</v>
       </c>
-      <c r="D77">
-        <v>76</v>
+      <c r="D77" t="n">
+        <v>76.0</v>
       </c>
       <c r="E77" t="s">
         <v>155</v>
@@ -3949,21 +3327,17 @@
       <c r="H77" t="s">
         <v>80</v>
       </c>
-      <c r="I77">
-        <v>76</v>
+      <c r="I77" t="n">
+        <v>76.0</v>
       </c>
       <c r="J77" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="K77" t="s">
-        <v>195</v>
-      </c>
-      <c r="L77" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -3973,8 +3347,8 @@
       <c r="C78" t="s">
         <v>81</v>
       </c>
-      <c r="D78">
-        <v>77</v>
+      <c r="D78" t="n">
+        <v>77.0</v>
       </c>
       <c r="E78" t="s">
         <v>156</v>
@@ -3988,21 +3362,17 @@
       <c r="H78" t="s">
         <v>81</v>
       </c>
-      <c r="I78">
-        <v>77</v>
+      <c r="I78" t="n">
+        <v>77.0</v>
       </c>
       <c r="J78" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="K78" t="s">
-        <v>195</v>
-      </c>
-      <c r="L78" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -4012,8 +3382,8 @@
       <c r="C79" t="s">
         <v>82</v>
       </c>
-      <c r="D79">
-        <v>78</v>
+      <c r="D79" t="n">
+        <v>78.0</v>
       </c>
       <c r="E79" t="s">
         <v>155</v>
@@ -4027,21 +3397,17 @@
       <c r="H79" t="s">
         <v>82</v>
       </c>
-      <c r="I79">
-        <v>78</v>
+      <c r="I79" t="n">
+        <v>78.0</v>
       </c>
       <c r="J79" t="s">
         <v>155</v>
       </c>
       <c r="K79" t="s">
-        <v>195</v>
-      </c>
-      <c r="L79" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -4051,8 +3417,8 @@
       <c r="C80" t="s">
         <v>83</v>
       </c>
-      <c r="D80">
-        <v>79</v>
+      <c r="D80" t="n">
+        <v>79.0</v>
       </c>
       <c r="E80" t="s">
         <v>156</v>
@@ -4066,21 +3432,17 @@
       <c r="H80" t="s">
         <v>83</v>
       </c>
-      <c r="I80">
-        <v>79</v>
+      <c r="I80" t="n">
+        <v>79.0</v>
       </c>
       <c r="J80" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="K80" t="s">
-        <v>195</v>
-      </c>
-      <c r="L80" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/metadata2.xlsx
+++ b/metadata2.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\2018\_CSP572_Practicum\EDSA UCA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_EE409560C3574AFC124848154A4F7D7628A9879D" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{4DAF4510-939F-44DC-8BA8-73A94E480490}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -599,11 +607,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -615,7 +622,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -633,19 +640,332 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="169.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -687,8 +1007,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>155</v>
@@ -702,8 +1022,8 @@
       <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.0</v>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>155</v>
@@ -712,7 +1032,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -722,8 +1042,8 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
-        <v>2.0</v>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>156</v>
@@ -737,8 +1057,8 @@
       <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="n">
-        <v>2.0</v>
+      <c r="I3">
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>156</v>
@@ -747,7 +1067,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -757,8 +1077,8 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>3.0</v>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>156</v>
@@ -772,8 +1092,8 @@
       <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.0</v>
+      <c r="I4">
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>156</v>
@@ -782,7 +1102,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -792,8 +1112,8 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
-        <v>4.0</v>
+      <c r="D5">
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>156</v>
@@ -807,8 +1127,8 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="n">
-        <v>4.0</v>
+      <c r="I5">
+        <v>4</v>
       </c>
       <c r="J5" t="s">
         <v>156</v>
@@ -817,7 +1137,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -827,8 +1147,8 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
-        <v>5.0</v>
+      <c r="D6">
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>156</v>
@@ -842,8 +1162,8 @@
       <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" t="n">
-        <v>5.0</v>
+      <c r="I6">
+        <v>5</v>
       </c>
       <c r="J6" t="s">
         <v>156</v>
@@ -852,7 +1172,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -862,8 +1182,8 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
-        <v>6.0</v>
+      <c r="D7">
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>156</v>
@@ -877,8 +1197,8 @@
       <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="n">
-        <v>6.0</v>
+      <c r="I7">
+        <v>6</v>
       </c>
       <c r="J7" t="s">
         <v>156</v>
@@ -887,7 +1207,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -897,8 +1217,8 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
-        <v>7.0</v>
+      <c r="D8">
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>155</v>
@@ -912,8 +1232,8 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I8" t="n">
-        <v>7.0</v>
+      <c r="I8">
+        <v>7</v>
       </c>
       <c r="J8" t="s">
         <v>155</v>
@@ -922,7 +1242,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -932,8 +1252,8 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
-        <v>8.0</v>
+      <c r="D9">
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>155</v>
@@ -947,8 +1267,8 @@
       <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" t="n">
-        <v>8.0</v>
+      <c r="I9">
+        <v>8</v>
       </c>
       <c r="J9" t="s">
         <v>155</v>
@@ -957,7 +1277,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -967,8 +1287,8 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="n">
-        <v>9.0</v>
+      <c r="D10">
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>155</v>
@@ -982,8 +1302,8 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" t="n">
-        <v>9.0</v>
+      <c r="I10">
+        <v>9</v>
       </c>
       <c r="J10" t="s">
         <v>155</v>
@@ -992,7 +1312,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1002,8 +1322,8 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="n">
-        <v>10.0</v>
+      <c r="D11">
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>155</v>
@@ -1017,8 +1337,8 @@
       <c r="H11" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="n">
-        <v>10.0</v>
+      <c r="I11">
+        <v>10</v>
       </c>
       <c r="J11" t="s">
         <v>155</v>
@@ -1027,7 +1347,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1037,8 +1357,8 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="n">
-        <v>11.0</v>
+      <c r="D12">
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>156</v>
@@ -1052,8 +1372,8 @@
       <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" t="n">
-        <v>11.0</v>
+      <c r="I12">
+        <v>11</v>
       </c>
       <c r="J12" t="s">
         <v>156</v>
@@ -1062,7 +1382,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1072,8 +1392,8 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="n">
-        <v>12.0</v>
+      <c r="D13">
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>156</v>
@@ -1087,8 +1407,8 @@
       <c r="H13" t="s">
         <v>16</v>
       </c>
-      <c r="I13" t="n">
-        <v>12.0</v>
+      <c r="I13">
+        <v>12</v>
       </c>
       <c r="J13" t="s">
         <v>156</v>
@@ -1097,7 +1417,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1107,8 +1427,8 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="n">
-        <v>13.0</v>
+      <c r="D14">
+        <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>155</v>
@@ -1122,8 +1442,8 @@
       <c r="H14" t="s">
         <v>17</v>
       </c>
-      <c r="I14" t="n">
-        <v>13.0</v>
+      <c r="I14">
+        <v>13</v>
       </c>
       <c r="J14" t="s">
         <v>155</v>
@@ -1132,7 +1452,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1142,8 +1462,8 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="n">
-        <v>14.0</v>
+      <c r="D15">
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>155</v>
@@ -1157,8 +1477,8 @@
       <c r="H15" t="s">
         <v>18</v>
       </c>
-      <c r="I15" t="n">
-        <v>14.0</v>
+      <c r="I15">
+        <v>14</v>
       </c>
       <c r="J15" t="s">
         <v>155</v>
@@ -1167,7 +1487,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1177,8 +1497,8 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="n">
-        <v>15.0</v>
+      <c r="D16">
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>155</v>
@@ -1192,8 +1512,8 @@
       <c r="H16" t="s">
         <v>19</v>
       </c>
-      <c r="I16" t="n">
-        <v>15.0</v>
+      <c r="I16">
+        <v>15</v>
       </c>
       <c r="J16" t="s">
         <v>155</v>
@@ -1202,7 +1522,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1212,8 +1532,8 @@
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="n">
-        <v>16.0</v>
+      <c r="D17">
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>155</v>
@@ -1227,8 +1547,8 @@
       <c r="H17" t="s">
         <v>20</v>
       </c>
-      <c r="I17" t="n">
-        <v>16.0</v>
+      <c r="I17">
+        <v>16</v>
       </c>
       <c r="J17" t="s">
         <v>155</v>
@@ -1237,7 +1557,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1247,8 +1567,8 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="n">
-        <v>17.0</v>
+      <c r="D18">
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>155</v>
@@ -1262,8 +1582,8 @@
       <c r="H18" t="s">
         <v>21</v>
       </c>
-      <c r="I18" t="n">
-        <v>17.0</v>
+      <c r="I18">
+        <v>17</v>
       </c>
       <c r="J18" t="s">
         <v>155</v>
@@ -1272,7 +1592,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1282,8 +1602,8 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="n">
-        <v>18.0</v>
+      <c r="D19">
+        <v>18</v>
       </c>
       <c r="E19" t="s">
         <v>155</v>
@@ -1297,8 +1617,8 @@
       <c r="H19" t="s">
         <v>22</v>
       </c>
-      <c r="I19" t="n">
-        <v>18.0</v>
+      <c r="I19">
+        <v>18</v>
       </c>
       <c r="J19" t="s">
         <v>155</v>
@@ -1307,7 +1627,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1317,8 +1637,8 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="n">
-        <v>19.0</v>
+      <c r="D20">
+        <v>19</v>
       </c>
       <c r="E20" t="s">
         <v>155</v>
@@ -1332,8 +1652,8 @@
       <c r="H20" t="s">
         <v>23</v>
       </c>
-      <c r="I20" t="n">
-        <v>19.0</v>
+      <c r="I20">
+        <v>19</v>
       </c>
       <c r="J20" t="s">
         <v>155</v>
@@ -1342,7 +1662,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1352,8 +1672,8 @@
       <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" t="n">
-        <v>20.0</v>
+      <c r="D21">
+        <v>20</v>
       </c>
       <c r="E21" t="s">
         <v>155</v>
@@ -1367,8 +1687,8 @@
       <c r="H21" t="s">
         <v>24</v>
       </c>
-      <c r="I21" t="n">
-        <v>20.0</v>
+      <c r="I21">
+        <v>20</v>
       </c>
       <c r="J21" t="s">
         <v>155</v>
@@ -1377,7 +1697,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1387,8 +1707,8 @@
       <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" t="n">
-        <v>21.0</v>
+      <c r="D22">
+        <v>21</v>
       </c>
       <c r="E22" t="s">
         <v>155</v>
@@ -1402,8 +1722,8 @@
       <c r="H22" t="s">
         <v>25</v>
       </c>
-      <c r="I22" t="n">
-        <v>21.0</v>
+      <c r="I22">
+        <v>21</v>
       </c>
       <c r="J22" t="s">
         <v>155</v>
@@ -1412,7 +1732,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1422,8 +1742,8 @@
       <c r="C23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="n">
-        <v>22.0</v>
+      <c r="D23">
+        <v>22</v>
       </c>
       <c r="E23" t="s">
         <v>155</v>
@@ -1437,8 +1757,8 @@
       <c r="H23" t="s">
         <v>26</v>
       </c>
-      <c r="I23" t="n">
-        <v>22.0</v>
+      <c r="I23">
+        <v>22</v>
       </c>
       <c r="J23" t="s">
         <v>155</v>
@@ -1447,7 +1767,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1457,8 +1777,8 @@
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="n">
-        <v>23.0</v>
+      <c r="D24">
+        <v>23</v>
       </c>
       <c r="E24" t="s">
         <v>155</v>
@@ -1472,8 +1792,8 @@
       <c r="H24" t="s">
         <v>27</v>
       </c>
-      <c r="I24" t="n">
-        <v>23.0</v>
+      <c r="I24">
+        <v>23</v>
       </c>
       <c r="J24" t="s">
         <v>155</v>
@@ -1482,7 +1802,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1492,8 +1812,8 @@
       <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D25" t="n">
-        <v>24.0</v>
+      <c r="D25">
+        <v>24</v>
       </c>
       <c r="E25" t="s">
         <v>155</v>
@@ -1507,8 +1827,8 @@
       <c r="H25" t="s">
         <v>28</v>
       </c>
-      <c r="I25" t="n">
-        <v>24.0</v>
+      <c r="I25">
+        <v>24</v>
       </c>
       <c r="J25" t="s">
         <v>155</v>
@@ -1517,7 +1837,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1527,8 +1847,8 @@
       <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" t="n">
-        <v>25.0</v>
+      <c r="D26">
+        <v>25</v>
       </c>
       <c r="E26" t="s">
         <v>155</v>
@@ -1542,8 +1862,8 @@
       <c r="H26" t="s">
         <v>29</v>
       </c>
-      <c r="I26" t="n">
-        <v>25.0</v>
+      <c r="I26">
+        <v>25</v>
       </c>
       <c r="J26" t="s">
         <v>155</v>
@@ -1552,7 +1872,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1562,8 +1882,8 @@
       <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="D27" t="n">
-        <v>26.0</v>
+      <c r="D27">
+        <v>26</v>
       </c>
       <c r="E27" t="s">
         <v>155</v>
@@ -1577,8 +1897,8 @@
       <c r="H27" t="s">
         <v>30</v>
       </c>
-      <c r="I27" t="n">
-        <v>26.0</v>
+      <c r="I27">
+        <v>26</v>
       </c>
       <c r="J27" t="s">
         <v>155</v>
@@ -1587,7 +1907,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1597,8 +1917,8 @@
       <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="D28" t="n">
-        <v>27.0</v>
+      <c r="D28">
+        <v>27</v>
       </c>
       <c r="E28" t="s">
         <v>155</v>
@@ -1612,8 +1932,8 @@
       <c r="H28" t="s">
         <v>31</v>
       </c>
-      <c r="I28" t="n">
-        <v>27.0</v>
+      <c r="I28">
+        <v>27</v>
       </c>
       <c r="J28" t="s">
         <v>155</v>
@@ -1622,7 +1942,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1952,8 @@
       <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="D29" t="n">
-        <v>28.0</v>
+      <c r="D29">
+        <v>28</v>
       </c>
       <c r="E29" t="s">
         <v>156</v>
@@ -1647,8 +1967,8 @@
       <c r="H29" t="s">
         <v>32</v>
       </c>
-      <c r="I29" t="n">
-        <v>28.0</v>
+      <c r="I29">
+        <v>28</v>
       </c>
       <c r="J29" t="s">
         <v>156</v>
@@ -1657,7 +1977,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1667,8 +1987,8 @@
       <c r="C30" t="s">
         <v>33</v>
       </c>
-      <c r="D30" t="n">
-        <v>29.0</v>
+      <c r="D30">
+        <v>29</v>
       </c>
       <c r="E30" t="s">
         <v>155</v>
@@ -1682,8 +2002,8 @@
       <c r="H30" t="s">
         <v>33</v>
       </c>
-      <c r="I30" t="n">
-        <v>29.0</v>
+      <c r="I30">
+        <v>29</v>
       </c>
       <c r="J30" t="s">
         <v>155</v>
@@ -1692,7 +2012,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1702,8 +2022,8 @@
       <c r="C31" t="s">
         <v>34</v>
       </c>
-      <c r="D31" t="n">
-        <v>30.0</v>
+      <c r="D31">
+        <v>30</v>
       </c>
       <c r="E31" t="s">
         <v>155</v>
@@ -1717,8 +2037,8 @@
       <c r="H31" t="s">
         <v>34</v>
       </c>
-      <c r="I31" t="n">
-        <v>30.0</v>
+      <c r="I31">
+        <v>30</v>
       </c>
       <c r="J31" t="s">
         <v>155</v>
@@ -1727,7 +2047,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1737,8 +2057,8 @@
       <c r="C32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" t="n">
-        <v>31.0</v>
+      <c r="D32">
+        <v>31</v>
       </c>
       <c r="E32" t="s">
         <v>155</v>
@@ -1752,8 +2072,8 @@
       <c r="H32" t="s">
         <v>35</v>
       </c>
-      <c r="I32" t="n">
-        <v>31.0</v>
+      <c r="I32">
+        <v>31</v>
       </c>
       <c r="J32" t="s">
         <v>155</v>
@@ -1762,7 +2082,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1772,8 +2092,8 @@
       <c r="C33" t="s">
         <v>36</v>
       </c>
-      <c r="D33" t="n">
-        <v>32.0</v>
+      <c r="D33">
+        <v>32</v>
       </c>
       <c r="E33" t="s">
         <v>155</v>
@@ -1787,8 +2107,8 @@
       <c r="H33" t="s">
         <v>36</v>
       </c>
-      <c r="I33" t="n">
-        <v>32.0</v>
+      <c r="I33">
+        <v>32</v>
       </c>
       <c r="J33" t="s">
         <v>155</v>
@@ -1797,7 +2117,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1807,8 +2127,8 @@
       <c r="C34" t="s">
         <v>37</v>
       </c>
-      <c r="D34" t="n">
-        <v>33.0</v>
+      <c r="D34">
+        <v>33</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1822,8 +2142,8 @@
       <c r="H34" t="s">
         <v>37</v>
       </c>
-      <c r="I34" t="n">
-        <v>33.0</v>
+      <c r="I34">
+        <v>33</v>
       </c>
       <c r="J34" t="s">
         <v>155</v>
@@ -1832,7 +2152,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1842,8 +2162,8 @@
       <c r="C35" t="s">
         <v>38</v>
       </c>
-      <c r="D35" t="n">
-        <v>34.0</v>
+      <c r="D35">
+        <v>34</v>
       </c>
       <c r="E35" t="s">
         <v>155</v>
@@ -1857,8 +2177,8 @@
       <c r="H35" t="s">
         <v>38</v>
       </c>
-      <c r="I35" t="n">
-        <v>34.0</v>
+      <c r="I35">
+        <v>34</v>
       </c>
       <c r="J35" t="s">
         <v>155</v>
@@ -1867,7 +2187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1877,8 +2197,8 @@
       <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="D36" t="n">
-        <v>35.0</v>
+      <c r="D36">
+        <v>35</v>
       </c>
       <c r="E36" t="s">
         <v>155</v>
@@ -1892,8 +2212,8 @@
       <c r="H36" t="s">
         <v>39</v>
       </c>
-      <c r="I36" t="n">
-        <v>35.0</v>
+      <c r="I36">
+        <v>35</v>
       </c>
       <c r="J36" t="s">
         <v>155</v>
@@ -1902,7 +2222,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1912,8 +2232,8 @@
       <c r="C37" t="s">
         <v>40</v>
       </c>
-      <c r="D37" t="n">
-        <v>36.0</v>
+      <c r="D37">
+        <v>36</v>
       </c>
       <c r="E37" t="s">
         <v>155</v>
@@ -1927,8 +2247,8 @@
       <c r="H37" t="s">
         <v>40</v>
       </c>
-      <c r="I37" t="n">
-        <v>36.0</v>
+      <c r="I37">
+        <v>36</v>
       </c>
       <c r="J37" t="s">
         <v>155</v>
@@ -1937,7 +2257,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1947,8 +2267,8 @@
       <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="D38" t="n">
-        <v>37.0</v>
+      <c r="D38">
+        <v>37</v>
       </c>
       <c r="E38" t="s">
         <v>155</v>
@@ -1962,8 +2282,8 @@
       <c r="H38" t="s">
         <v>41</v>
       </c>
-      <c r="I38" t="n">
-        <v>37.0</v>
+      <c r="I38">
+        <v>37</v>
       </c>
       <c r="J38" t="s">
         <v>155</v>
@@ -1972,7 +2292,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1982,8 +2302,8 @@
       <c r="C39" t="s">
         <v>42</v>
       </c>
-      <c r="D39" t="n">
-        <v>38.0</v>
+      <c r="D39">
+        <v>38</v>
       </c>
       <c r="E39" t="s">
         <v>155</v>
@@ -1997,8 +2317,8 @@
       <c r="H39" t="s">
         <v>42</v>
       </c>
-      <c r="I39" t="n">
-        <v>38.0</v>
+      <c r="I39">
+        <v>38</v>
       </c>
       <c r="J39" t="s">
         <v>155</v>
@@ -2007,7 +2327,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2017,8 +2337,8 @@
       <c r="C40" t="s">
         <v>43</v>
       </c>
-      <c r="D40" t="n">
-        <v>39.0</v>
+      <c r="D40">
+        <v>39</v>
       </c>
       <c r="E40" t="s">
         <v>155</v>
@@ -2032,8 +2352,8 @@
       <c r="H40" t="s">
         <v>43</v>
       </c>
-      <c r="I40" t="n">
-        <v>39.0</v>
+      <c r="I40">
+        <v>39</v>
       </c>
       <c r="J40" t="s">
         <v>155</v>
@@ -2042,7 +2362,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2052,8 +2372,8 @@
       <c r="C41" t="s">
         <v>44</v>
       </c>
-      <c r="D41" t="n">
-        <v>40.0</v>
+      <c r="D41">
+        <v>40</v>
       </c>
       <c r="E41" t="s">
         <v>155</v>
@@ -2067,8 +2387,8 @@
       <c r="H41" t="s">
         <v>44</v>
       </c>
-      <c r="I41" t="n">
-        <v>40.0</v>
+      <c r="I41">
+        <v>40</v>
       </c>
       <c r="J41" t="s">
         <v>155</v>
@@ -2077,7 +2397,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2087,8 +2407,8 @@
       <c r="C42" t="s">
         <v>45</v>
       </c>
-      <c r="D42" t="n">
-        <v>41.0</v>
+      <c r="D42">
+        <v>41</v>
       </c>
       <c r="E42" t="s">
         <v>155</v>
@@ -2102,8 +2422,8 @@
       <c r="H42" t="s">
         <v>45</v>
       </c>
-      <c r="I42" t="n">
-        <v>41.0</v>
+      <c r="I42">
+        <v>41</v>
       </c>
       <c r="J42" t="s">
         <v>155</v>
@@ -2112,7 +2432,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2122,8 +2442,8 @@
       <c r="C43" t="s">
         <v>46</v>
       </c>
-      <c r="D43" t="n">
-        <v>42.0</v>
+      <c r="D43">
+        <v>42</v>
       </c>
       <c r="E43" t="s">
         <v>155</v>
@@ -2137,8 +2457,8 @@
       <c r="H43" t="s">
         <v>46</v>
       </c>
-      <c r="I43" t="n">
-        <v>42.0</v>
+      <c r="I43">
+        <v>42</v>
       </c>
       <c r="J43" t="s">
         <v>155</v>
@@ -2147,7 +2467,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2157,8 +2477,8 @@
       <c r="C44" t="s">
         <v>47</v>
       </c>
-      <c r="D44" t="n">
-        <v>43.0</v>
+      <c r="D44">
+        <v>43</v>
       </c>
       <c r="E44" t="s">
         <v>155</v>
@@ -2172,8 +2492,8 @@
       <c r="H44" t="s">
         <v>47</v>
       </c>
-      <c r="I44" t="n">
-        <v>43.0</v>
+      <c r="I44">
+        <v>43</v>
       </c>
       <c r="J44" t="s">
         <v>155</v>
@@ -2182,7 +2502,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2192,8 +2512,8 @@
       <c r="C45" t="s">
         <v>48</v>
       </c>
-      <c r="D45" t="n">
-        <v>44.0</v>
+      <c r="D45">
+        <v>44</v>
       </c>
       <c r="E45" t="s">
         <v>156</v>
@@ -2207,8 +2527,8 @@
       <c r="H45" t="s">
         <v>48</v>
       </c>
-      <c r="I45" t="n">
-        <v>44.0</v>
+      <c r="I45">
+        <v>44</v>
       </c>
       <c r="J45" t="s">
         <v>156</v>
@@ -2217,7 +2537,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2547,8 @@
       <c r="C46" t="s">
         <v>49</v>
       </c>
-      <c r="D46" t="n">
-        <v>45.0</v>
+      <c r="D46">
+        <v>45</v>
       </c>
       <c r="E46" t="s">
         <v>155</v>
@@ -2242,8 +2562,8 @@
       <c r="H46" t="s">
         <v>49</v>
       </c>
-      <c r="I46" t="n">
-        <v>45.0</v>
+      <c r="I46">
+        <v>45</v>
       </c>
       <c r="J46" t="s">
         <v>155</v>
@@ -2252,7 +2572,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2262,8 +2582,8 @@
       <c r="C47" t="s">
         <v>50</v>
       </c>
-      <c r="D47" t="n">
-        <v>46.0</v>
+      <c r="D47">
+        <v>46</v>
       </c>
       <c r="E47" t="s">
         <v>156</v>
@@ -2277,8 +2597,8 @@
       <c r="H47" t="s">
         <v>50</v>
       </c>
-      <c r="I47" t="n">
-        <v>46.0</v>
+      <c r="I47">
+        <v>46</v>
       </c>
       <c r="J47" t="s">
         <v>156</v>
@@ -2287,7 +2607,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2297,8 +2617,8 @@
       <c r="C48" t="s">
         <v>51</v>
       </c>
-      <c r="D48" t="n">
-        <v>47.0</v>
+      <c r="D48">
+        <v>47</v>
       </c>
       <c r="E48" t="s">
         <v>155</v>
@@ -2312,8 +2632,8 @@
       <c r="H48" t="s">
         <v>51</v>
       </c>
-      <c r="I48" t="n">
-        <v>47.0</v>
+      <c r="I48">
+        <v>47</v>
       </c>
       <c r="J48" t="s">
         <v>155</v>
@@ -2322,7 +2642,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2332,8 +2652,8 @@
       <c r="C49" t="s">
         <v>52</v>
       </c>
-      <c r="D49" t="n">
-        <v>48.0</v>
+      <c r="D49">
+        <v>48</v>
       </c>
       <c r="E49" t="s">
         <v>155</v>
@@ -2347,8 +2667,8 @@
       <c r="H49" t="s">
         <v>52</v>
       </c>
-      <c r="I49" t="n">
-        <v>48.0</v>
+      <c r="I49">
+        <v>48</v>
       </c>
       <c r="J49" t="s">
         <v>155</v>
@@ -2357,7 +2677,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2367,8 +2687,8 @@
       <c r="C50" t="s">
         <v>53</v>
       </c>
-      <c r="D50" t="n">
-        <v>49.0</v>
+      <c r="D50">
+        <v>49</v>
       </c>
       <c r="E50" t="s">
         <v>156</v>
@@ -2382,8 +2702,8 @@
       <c r="H50" t="s">
         <v>53</v>
       </c>
-      <c r="I50" t="n">
-        <v>49.0</v>
+      <c r="I50">
+        <v>49</v>
       </c>
       <c r="J50" t="s">
         <v>156</v>
@@ -2392,7 +2712,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2722,8 @@
       <c r="C51" t="s">
         <v>54</v>
       </c>
-      <c r="D51" t="n">
-        <v>50.0</v>
+      <c r="D51">
+        <v>50</v>
       </c>
       <c r="E51" t="s">
         <v>156</v>
@@ -2417,8 +2737,8 @@
       <c r="H51" t="s">
         <v>54</v>
       </c>
-      <c r="I51" t="n">
-        <v>50.0</v>
+      <c r="I51">
+        <v>50</v>
       </c>
       <c r="J51" t="s">
         <v>156</v>
@@ -2427,7 +2747,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2757,8 @@
       <c r="C52" t="s">
         <v>55</v>
       </c>
-      <c r="D52" t="n">
-        <v>51.0</v>
+      <c r="D52">
+        <v>51</v>
       </c>
       <c r="E52" t="s">
         <v>156</v>
@@ -2452,8 +2772,8 @@
       <c r="H52" t="s">
         <v>55</v>
       </c>
-      <c r="I52" t="n">
-        <v>51.0</v>
+      <c r="I52">
+        <v>51</v>
       </c>
       <c r="J52" t="s">
         <v>156</v>
@@ -2462,7 +2782,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2792,8 @@
       <c r="C53" t="s">
         <v>56</v>
       </c>
-      <c r="D53" t="n">
-        <v>52.0</v>
+      <c r="D53">
+        <v>52</v>
       </c>
       <c r="E53" t="s">
         <v>155</v>
@@ -2487,8 +2807,8 @@
       <c r="H53" t="s">
         <v>56</v>
       </c>
-      <c r="I53" t="n">
-        <v>52.0</v>
+      <c r="I53">
+        <v>52</v>
       </c>
       <c r="J53" t="s">
         <v>155</v>
@@ -2497,7 +2817,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2507,8 +2827,8 @@
       <c r="C54" t="s">
         <v>57</v>
       </c>
-      <c r="D54" t="n">
-        <v>53.0</v>
+      <c r="D54">
+        <v>53</v>
       </c>
       <c r="E54" t="s">
         <v>156</v>
@@ -2522,8 +2842,8 @@
       <c r="H54" t="s">
         <v>57</v>
       </c>
-      <c r="I54" t="n">
-        <v>53.0</v>
+      <c r="I54">
+        <v>53</v>
       </c>
       <c r="J54" t="s">
         <v>156</v>
@@ -2532,7 +2852,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2542,8 +2862,8 @@
       <c r="C55" t="s">
         <v>58</v>
       </c>
-      <c r="D55" t="n">
-        <v>54.0</v>
+      <c r="D55">
+        <v>54</v>
       </c>
       <c r="E55" t="s">
         <v>156</v>
@@ -2557,8 +2877,8 @@
       <c r="H55" t="s">
         <v>58</v>
       </c>
-      <c r="I55" t="n">
-        <v>54.0</v>
+      <c r="I55">
+        <v>54</v>
       </c>
       <c r="J55" t="s">
         <v>156</v>
@@ -2567,7 +2887,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2577,8 +2897,8 @@
       <c r="C56" t="s">
         <v>59</v>
       </c>
-      <c r="D56" t="n">
-        <v>55.0</v>
+      <c r="D56">
+        <v>55</v>
       </c>
       <c r="E56" t="s">
         <v>156</v>
@@ -2592,8 +2912,8 @@
       <c r="H56" t="s">
         <v>59</v>
       </c>
-      <c r="I56" t="n">
-        <v>55.0</v>
+      <c r="I56">
+        <v>55</v>
       </c>
       <c r="J56" t="s">
         <v>156</v>
@@ -2602,7 +2922,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2612,8 +2932,8 @@
       <c r="C57" t="s">
         <v>60</v>
       </c>
-      <c r="D57" t="n">
-        <v>56.0</v>
+      <c r="D57">
+        <v>56</v>
       </c>
       <c r="E57" t="s">
         <v>156</v>
@@ -2627,8 +2947,8 @@
       <c r="H57" t="s">
         <v>60</v>
       </c>
-      <c r="I57" t="n">
-        <v>56.0</v>
+      <c r="I57">
+        <v>56</v>
       </c>
       <c r="J57" t="s">
         <v>156</v>
@@ -2637,7 +2957,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2647,8 +2967,8 @@
       <c r="C58" t="s">
         <v>61</v>
       </c>
-      <c r="D58" t="n">
-        <v>57.0</v>
+      <c r="D58">
+        <v>57</v>
       </c>
       <c r="E58" t="s">
         <v>156</v>
@@ -2662,8 +2982,8 @@
       <c r="H58" t="s">
         <v>61</v>
       </c>
-      <c r="I58" t="n">
-        <v>57.0</v>
+      <c r="I58">
+        <v>57</v>
       </c>
       <c r="J58" t="s">
         <v>156</v>
@@ -2672,7 +2992,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -2682,8 +3002,8 @@
       <c r="C59" t="s">
         <v>62</v>
       </c>
-      <c r="D59" t="n">
-        <v>58.0</v>
+      <c r="D59">
+        <v>58</v>
       </c>
       <c r="E59" t="s">
         <v>155</v>
@@ -2697,8 +3017,8 @@
       <c r="H59" t="s">
         <v>62</v>
       </c>
-      <c r="I59" t="n">
-        <v>58.0</v>
+      <c r="I59">
+        <v>58</v>
       </c>
       <c r="J59" t="s">
         <v>155</v>
@@ -2707,7 +3027,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2717,8 +3037,8 @@
       <c r="C60" t="s">
         <v>63</v>
       </c>
-      <c r="D60" t="n">
-        <v>59.0</v>
+      <c r="D60">
+        <v>59</v>
       </c>
       <c r="E60" t="s">
         <v>155</v>
@@ -2732,8 +3052,8 @@
       <c r="H60" t="s">
         <v>63</v>
       </c>
-      <c r="I60" t="n">
-        <v>59.0</v>
+      <c r="I60">
+        <v>59</v>
       </c>
       <c r="J60" t="s">
         <v>155</v>
@@ -2742,7 +3062,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2752,8 +3072,8 @@
       <c r="C61" t="s">
         <v>64</v>
       </c>
-      <c r="D61" t="n">
-        <v>60.0</v>
+      <c r="D61">
+        <v>60</v>
       </c>
       <c r="E61" t="s">
         <v>155</v>
@@ -2767,8 +3087,8 @@
       <c r="H61" t="s">
         <v>64</v>
       </c>
-      <c r="I61" t="n">
-        <v>60.0</v>
+      <c r="I61">
+        <v>60</v>
       </c>
       <c r="J61" t="s">
         <v>155</v>
@@ -2777,7 +3097,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -2787,8 +3107,8 @@
       <c r="C62" t="s">
         <v>65</v>
       </c>
-      <c r="D62" t="n">
-        <v>61.0</v>
+      <c r="D62">
+        <v>61</v>
       </c>
       <c r="E62" t="s">
         <v>155</v>
@@ -2802,8 +3122,8 @@
       <c r="H62" t="s">
         <v>65</v>
       </c>
-      <c r="I62" t="n">
-        <v>61.0</v>
+      <c r="I62">
+        <v>61</v>
       </c>
       <c r="J62" t="s">
         <v>155</v>
@@ -2812,7 +3132,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -2822,8 +3142,8 @@
       <c r="C63" t="s">
         <v>66</v>
       </c>
-      <c r="D63" t="n">
-        <v>62.0</v>
+      <c r="D63">
+        <v>62</v>
       </c>
       <c r="E63" t="s">
         <v>155</v>
@@ -2837,8 +3157,8 @@
       <c r="H63" t="s">
         <v>66</v>
       </c>
-      <c r="I63" t="n">
-        <v>62.0</v>
+      <c r="I63">
+        <v>62</v>
       </c>
       <c r="J63" t="s">
         <v>155</v>
@@ -2847,7 +3167,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -2857,8 +3177,8 @@
       <c r="C64" t="s">
         <v>67</v>
       </c>
-      <c r="D64" t="n">
-        <v>63.0</v>
+      <c r="D64">
+        <v>63</v>
       </c>
       <c r="E64" t="s">
         <v>155</v>
@@ -2872,8 +3192,8 @@
       <c r="H64" t="s">
         <v>67</v>
       </c>
-      <c r="I64" t="n">
-        <v>63.0</v>
+      <c r="I64">
+        <v>63</v>
       </c>
       <c r="J64" t="s">
         <v>155</v>
@@ -2882,7 +3202,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2892,8 +3212,8 @@
       <c r="C65" t="s">
         <v>68</v>
       </c>
-      <c r="D65" t="n">
-        <v>64.0</v>
+      <c r="D65">
+        <v>64</v>
       </c>
       <c r="E65" t="s">
         <v>155</v>
@@ -2907,8 +3227,8 @@
       <c r="H65" t="s">
         <v>68</v>
       </c>
-      <c r="I65" t="n">
-        <v>64.0</v>
+      <c r="I65">
+        <v>64</v>
       </c>
       <c r="J65" t="s">
         <v>155</v>
@@ -2917,7 +3237,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -2927,8 +3247,8 @@
       <c r="C66" t="s">
         <v>69</v>
       </c>
-      <c r="D66" t="n">
-        <v>65.0</v>
+      <c r="D66">
+        <v>65</v>
       </c>
       <c r="E66" t="s">
         <v>155</v>
@@ -2942,8 +3262,8 @@
       <c r="H66" t="s">
         <v>69</v>
       </c>
-      <c r="I66" t="n">
-        <v>65.0</v>
+      <c r="I66">
+        <v>65</v>
       </c>
       <c r="J66" t="s">
         <v>155</v>
@@ -2952,7 +3272,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -2962,8 +3282,8 @@
       <c r="C67" t="s">
         <v>70</v>
       </c>
-      <c r="D67" t="n">
-        <v>66.0</v>
+      <c r="D67">
+        <v>66</v>
       </c>
       <c r="E67" t="s">
         <v>155</v>
@@ -2977,8 +3297,8 @@
       <c r="H67" t="s">
         <v>70</v>
       </c>
-      <c r="I67" t="n">
-        <v>66.0</v>
+      <c r="I67">
+        <v>66</v>
       </c>
       <c r="J67" t="s">
         <v>155</v>
@@ -2987,7 +3307,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -2997,8 +3317,8 @@
       <c r="C68" t="s">
         <v>71</v>
       </c>
-      <c r="D68" t="n">
-        <v>67.0</v>
+      <c r="D68">
+        <v>67</v>
       </c>
       <c r="E68" t="s">
         <v>155</v>
@@ -3012,8 +3332,8 @@
       <c r="H68" t="s">
         <v>71</v>
       </c>
-      <c r="I68" t="n">
-        <v>67.0</v>
+      <c r="I68">
+        <v>67</v>
       </c>
       <c r="J68" t="s">
         <v>155</v>
@@ -3022,7 +3342,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -3032,8 +3352,8 @@
       <c r="C69" t="s">
         <v>72</v>
       </c>
-      <c r="D69" t="n">
-        <v>68.0</v>
+      <c r="D69">
+        <v>68</v>
       </c>
       <c r="E69" t="s">
         <v>155</v>
@@ -3047,8 +3367,8 @@
       <c r="H69" t="s">
         <v>72</v>
       </c>
-      <c r="I69" t="n">
-        <v>68.0</v>
+      <c r="I69">
+        <v>68</v>
       </c>
       <c r="J69" t="s">
         <v>155</v>
@@ -3057,7 +3377,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -3067,8 +3387,8 @@
       <c r="C70" t="s">
         <v>73</v>
       </c>
-      <c r="D70" t="n">
-        <v>69.0</v>
+      <c r="D70">
+        <v>69</v>
       </c>
       <c r="E70" t="s">
         <v>155</v>
@@ -3082,8 +3402,8 @@
       <c r="H70" t="s">
         <v>73</v>
       </c>
-      <c r="I70" t="n">
-        <v>69.0</v>
+      <c r="I70">
+        <v>69</v>
       </c>
       <c r="J70" t="s">
         <v>155</v>
@@ -3092,7 +3412,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -3102,8 +3422,8 @@
       <c r="C71" t="s">
         <v>74</v>
       </c>
-      <c r="D71" t="n">
-        <v>70.0</v>
+      <c r="D71">
+        <v>70</v>
       </c>
       <c r="E71" t="s">
         <v>155</v>
@@ -3117,8 +3437,8 @@
       <c r="H71" t="s">
         <v>74</v>
       </c>
-      <c r="I71" t="n">
-        <v>70.0</v>
+      <c r="I71">
+        <v>70</v>
       </c>
       <c r="J71" t="s">
         <v>155</v>
@@ -3127,7 +3447,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -3137,8 +3457,8 @@
       <c r="C72" t="s">
         <v>75</v>
       </c>
-      <c r="D72" t="n">
-        <v>71.0</v>
+      <c r="D72">
+        <v>71</v>
       </c>
       <c r="E72" t="s">
         <v>155</v>
@@ -3152,8 +3472,8 @@
       <c r="H72" t="s">
         <v>75</v>
       </c>
-      <c r="I72" t="n">
-        <v>71.0</v>
+      <c r="I72">
+        <v>71</v>
       </c>
       <c r="J72" t="s">
         <v>155</v>
@@ -3162,7 +3482,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -3172,8 +3492,8 @@
       <c r="C73" t="s">
         <v>76</v>
       </c>
-      <c r="D73" t="n">
-        <v>72.0</v>
+      <c r="D73">
+        <v>72</v>
       </c>
       <c r="E73" t="s">
         <v>155</v>
@@ -3187,8 +3507,8 @@
       <c r="H73" t="s">
         <v>76</v>
       </c>
-      <c r="I73" t="n">
-        <v>72.0</v>
+      <c r="I73">
+        <v>72</v>
       </c>
       <c r="J73" t="s">
         <v>155</v>
@@ -3197,7 +3517,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -3207,8 +3527,8 @@
       <c r="C74" t="s">
         <v>77</v>
       </c>
-      <c r="D74" t="n">
-        <v>73.0</v>
+      <c r="D74">
+        <v>73</v>
       </c>
       <c r="E74" t="s">
         <v>155</v>
@@ -3222,8 +3542,8 @@
       <c r="H74" t="s">
         <v>77</v>
       </c>
-      <c r="I74" t="n">
-        <v>73.0</v>
+      <c r="I74">
+        <v>73</v>
       </c>
       <c r="J74" t="s">
         <v>155</v>
@@ -3232,7 +3552,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -3242,8 +3562,8 @@
       <c r="C75" t="s">
         <v>78</v>
       </c>
-      <c r="D75" t="n">
-        <v>74.0</v>
+      <c r="D75">
+        <v>74</v>
       </c>
       <c r="E75" t="s">
         <v>155</v>
@@ -3257,8 +3577,8 @@
       <c r="H75" t="s">
         <v>78</v>
       </c>
-      <c r="I75" t="n">
-        <v>74.0</v>
+      <c r="I75">
+        <v>74</v>
       </c>
       <c r="J75" t="s">
         <v>155</v>
@@ -3267,7 +3587,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -3277,8 +3597,8 @@
       <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="D76" t="n">
-        <v>75.0</v>
+      <c r="D76">
+        <v>75</v>
       </c>
       <c r="E76" t="s">
         <v>155</v>
@@ -3292,8 +3612,8 @@
       <c r="H76" t="s">
         <v>79</v>
       </c>
-      <c r="I76" t="n">
-        <v>75.0</v>
+      <c r="I76">
+        <v>75</v>
       </c>
       <c r="J76" t="s">
         <v>155</v>
@@ -3302,7 +3622,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -3312,8 +3632,8 @@
       <c r="C77" t="s">
         <v>80</v>
       </c>
-      <c r="D77" t="n">
-        <v>76.0</v>
+      <c r="D77">
+        <v>76</v>
       </c>
       <c r="E77" t="s">
         <v>155</v>
@@ -3327,8 +3647,8 @@
       <c r="H77" t="s">
         <v>80</v>
       </c>
-      <c r="I77" t="n">
-        <v>76.0</v>
+      <c r="I77">
+        <v>76</v>
       </c>
       <c r="J77" t="s">
         <v>155</v>
@@ -3337,7 +3657,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -3347,8 +3667,8 @@
       <c r="C78" t="s">
         <v>81</v>
       </c>
-      <c r="D78" t="n">
-        <v>77.0</v>
+      <c r="D78">
+        <v>77</v>
       </c>
       <c r="E78" t="s">
         <v>156</v>
@@ -3362,8 +3682,8 @@
       <c r="H78" t="s">
         <v>81</v>
       </c>
-      <c r="I78" t="n">
-        <v>77.0</v>
+      <c r="I78">
+        <v>77</v>
       </c>
       <c r="J78" t="s">
         <v>156</v>
@@ -3372,7 +3692,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -3382,8 +3702,8 @@
       <c r="C79" t="s">
         <v>82</v>
       </c>
-      <c r="D79" t="n">
-        <v>78.0</v>
+      <c r="D79">
+        <v>78</v>
       </c>
       <c r="E79" t="s">
         <v>155</v>
@@ -3397,8 +3717,8 @@
       <c r="H79" t="s">
         <v>82</v>
       </c>
-      <c r="I79" t="n">
-        <v>78.0</v>
+      <c r="I79">
+        <v>78</v>
       </c>
       <c r="J79" t="s">
         <v>155</v>
@@ -3407,7 +3727,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -3417,8 +3737,8 @@
       <c r="C80" t="s">
         <v>83</v>
       </c>
-      <c r="D80" t="n">
-        <v>79.0</v>
+      <c r="D80">
+        <v>79</v>
       </c>
       <c r="E80" t="s">
         <v>156</v>
@@ -3432,8 +3752,8 @@
       <c r="H80" t="s">
         <v>83</v>
       </c>
-      <c r="I80" t="n">
-        <v>79.0</v>
+      <c r="I80">
+        <v>79</v>
       </c>
       <c r="J80" t="s">
         <v>156</v>
@@ -3443,6 +3763,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>